--- a/server/course_24_F_AMS.xlsx
+++ b/server/course_24_F_AMS.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01:50 PM</t>
+          <t>1:50 PM</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03:20 PM</t>
+          <t>3:20 PM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03:20 PM</t>
+          <t>3:20 PM</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01:50 PM</t>
+          <t>1:50 PM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01:50 PM</t>
+          <t>1:50 PM</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>06:20 PM</t>
+          <t>6:20 PM</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>04:25 PM</t>
+          <t>4:25 PM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06:20 PM</t>
+          <t>6:20 PM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03:20 PM</t>
+          <t>3:20 PM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01:50 PM</t>
+          <t>1:50 PM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04:25 PM</t>
+          <t>4:25 PM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04:50 PM</t>
+          <t>4:50 PM</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05:55 PM</t>
+          <t>5:55 PM</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
